--- a/import/SRJ-SIANG-2-4-2019.xlsx.xlsx
+++ b/import/SRJ-SIANG-2-4-2019.xlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novitasari A\Desktop\4 Adiot\Arco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin baru\Data Buat Program Baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,10 +51,10 @@
     <t>2019/2020</t>
   </si>
   <si>
-    <t>2-5-15208</t>
-  </si>
-  <si>
-    <t>Muhammad austin Rainer Ghani</t>
+    <t>2-4-15207</t>
+  </si>
+  <si>
+    <t>Lumongga Kehara Rizki</t>
   </si>
   <si>
     <t>EKS-RNG</t>
@@ -64,11 +64,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +99,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,13 +407,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -443,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>15208</v>
+        <v>15207</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -464,5 +469,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>